--- a/data/external/Injury Report.xlsx
+++ b/data/external/Injury Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johno\Documents\Sports Research\NFL\data\external\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johno\Documents\nfl-dashboard\data\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486DDC36-ACAD-4954-95F2-B29780204037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD4E64-761E-4342-99DE-D1B682AC2E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="6240" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 14" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="312">
   <si>
     <t>Team</t>
   </si>
@@ -706,9 +706,6 @@
     <t>T. Anderson</t>
   </si>
   <si>
-    <t>S. Brown</t>
-  </si>
-  <si>
     <t>M. Milano</t>
   </si>
   <si>
@@ -727,9 +724,6 @@
     <t>G. Dexter</t>
   </si>
   <si>
-    <t>C. Ford</t>
-  </si>
-  <si>
     <t>A. Cappa</t>
   </si>
   <si>
@@ -799,9 +793,6 @@
     <t>C. Conner</t>
   </si>
   <si>
-    <t>P. Mahomes</t>
-  </si>
-  <si>
     <t>S. McCormick</t>
   </si>
   <si>
@@ -820,9 +811,6 @@
     <t>E. Molden</t>
   </si>
   <si>
-    <t>C. Durant</t>
-  </si>
-  <si>
     <t>T. Reeder</t>
   </si>
   <si>
@@ -835,30 +823,15 @@
     <t>J. Redmond</t>
   </si>
   <si>
-    <t>B. O'Neill</t>
-  </si>
-  <si>
     <t>I. Pace</t>
   </si>
   <si>
-    <t>C. Elliss</t>
-  </si>
-  <si>
     <t>A. Kamara</t>
   </si>
   <si>
-    <t>K. McKinstry</t>
-  </si>
-  <si>
     <t>T. Nubin</t>
   </si>
   <si>
-    <t>T. Devito</t>
-  </si>
-  <si>
-    <t>T.. Johnson</t>
-  </si>
-  <si>
     <t>Q. Williams</t>
   </si>
   <si>
@@ -871,15 +844,9 @@
     <t>B. Allen</t>
   </si>
   <si>
-    <t>L. Dickerson</t>
-  </si>
-  <si>
     <t>B. Graham</t>
   </si>
   <si>
-    <t>A. Brown</t>
-  </si>
-  <si>
     <t>T. Watt</t>
   </si>
   <si>
@@ -901,10 +868,103 @@
     <t>Z. Ertz</t>
   </si>
   <si>
-    <t>Z. Collins</t>
-  </si>
-  <si>
     <t>S. Murphy-Bunting</t>
+  </si>
+  <si>
+    <t>P. Johnson</t>
+  </si>
+  <si>
+    <t>M. Wilson</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>N. Agholor</t>
+  </si>
+  <si>
+    <t>O. Oweh</t>
+  </si>
+  <si>
+    <t>R. Bateman</t>
+  </si>
+  <si>
+    <t>C. Samuel</t>
+  </si>
+  <si>
+    <t>A. Robinsin</t>
+  </si>
+  <si>
+    <t>I. Ekwonu</t>
+  </si>
+  <si>
+    <t>R. Hunt</t>
+  </si>
+  <si>
+    <t>T. Homer</t>
+  </si>
+  <si>
+    <t>T. Jenkins</t>
+  </si>
+  <si>
+    <t>T. Hudson</t>
+  </si>
+  <si>
+    <t>M. Parsons</t>
+  </si>
+  <si>
+    <t>E. Kendricks</t>
+  </si>
+  <si>
+    <t>B. Branch</t>
+  </si>
+  <si>
+    <t>M. Gay</t>
+  </si>
+  <si>
+    <t>J. Meredith</t>
+  </si>
+  <si>
+    <t>H. Smith</t>
+  </si>
+  <si>
+    <t>K. White</t>
+  </si>
+  <si>
+    <t>J. Peppers</t>
+  </si>
+  <si>
+    <t>M. Jones</t>
+  </si>
+  <si>
+    <t>C. Young</t>
+  </si>
+  <si>
+    <t>M. Valdez-Scantling</t>
+  </si>
+  <si>
+    <t>B. Burns</t>
+  </si>
+  <si>
+    <t>T. Tracy</t>
+  </si>
+  <si>
+    <t>D. Elliott</t>
+  </si>
+  <si>
+    <t>I. Guerendo</t>
+  </si>
+  <si>
+    <t>C. Otton</t>
+  </si>
+  <si>
+    <t>T. Pollard</t>
+  </si>
+  <si>
+    <t>N. Folk</t>
   </si>
 </sst>
 </file>
@@ -1006,15 +1066,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{595DF439-414D-4DA5-BDC0-DF0DE568FCE6}" name="Table3" displayName="Table3" ref="A1:E155" totalsRowShown="0">
-  <autoFilter ref="A1:E155" xr:uid="{595DF439-414D-4DA5-BDC0-DF0DE568FCE6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{595DF439-414D-4DA5-BDC0-DF0DE568FCE6}" name="Table3" displayName="Table3" ref="A1:E172" totalsRowShown="0">
+  <autoFilter ref="A1:E172" xr:uid="{595DF439-414D-4DA5-BDC0-DF0DE568FCE6}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DEN"/>
-        <filter val="LAC"/>
+        <filter val="WAS"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A124:E133">
+    <sortCondition ref="B1:B171"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA643526-DBC9-4FEB-A871-A52970296D01}" name="Team"/>
     <tableColumn id="2" xr3:uid="{9A81C9EE-8B77-4980-A7F2-2A0011C44DEB}" name="Player"/>
@@ -1295,13 +1357,13 @@
       <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +1499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +1533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1488,7 +1550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1522,7 +1584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1536,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1553,7 +1615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1570,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1584,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1598,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1615,7 +1677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1632,7 +1694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1649,7 +1711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1683,7 +1745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1700,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1717,7 +1779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1734,7 +1796,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -1751,7 +1813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1768,7 +1830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -1785,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1802,7 +1864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1819,7 +1881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1836,7 +1898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1853,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1870,7 +1932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1904,7 +1966,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -1921,7 +1983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -1938,7 +2000,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -1952,7 +2014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -1969,7 +2031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +2048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2003,7 +2065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2020,7 +2082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -2037,7 +2099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -2051,7 +2113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -2068,7 +2130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -2085,7 +2147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -2102,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -2116,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2133,7 +2195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -2150,7 +2212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2167,7 +2229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2184,7 +2246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -2201,7 +2263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2218,7 +2280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -2235,7 +2297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -2252,7 +2314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2286,7 +2348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2303,7 +2365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2320,7 +2382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2354,7 +2416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2371,7 +2433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -2388,7 +2450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2405,7 +2467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2439,7 +2501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -2456,7 +2518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -2473,7 +2535,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +2552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2507,7 +2569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -2524,7 +2586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -2541,7 +2603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -2558,7 +2620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2575,7 +2637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -2592,7 +2654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -2609,7 +2671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2626,7 +2688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -2643,7 +2705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>50</v>
       </c>
@@ -2660,7 +2722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -2677,7 +2739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -2694,7 +2756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>50</v>
       </c>
@@ -2711,7 +2773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -2728,7 +2790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -2745,7 +2807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -2762,7 +2824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -2779,7 +2841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -2796,7 +2858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -2813,7 +2875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -2830,7 +2892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -2847,7 +2909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -2861,7 +2923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -2875,7 +2937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -2892,7 +2954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -2909,7 +2971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -2926,7 +2988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -2943,7 +3005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -2960,7 +3022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -2977,7 +3039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -2994,7 +3056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>61</v>
       </c>
@@ -3011,7 +3073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>61</v>
       </c>
@@ -3028,7 +3090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -3042,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -3059,7 +3121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -3076,7 +3138,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -3093,7 +3155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -3110,7 +3172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -3127,7 +3189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -3144,7 +3206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -3161,7 +3223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -3178,7 +3240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -3195,7 +3257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3209,7 +3271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -3223,7 +3285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -3240,7 +3302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>161</v>
       </c>
@@ -3257,7 +3319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>161</v>
       </c>
@@ -3274,7 +3336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -3291,7 +3353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -3308,7 +3370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>161</v>
       </c>
@@ -3325,7 +3387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -3342,7 +3404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>161</v>
       </c>
@@ -3359,7 +3421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3376,7 +3438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3393,7 +3455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3410,7 +3472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -3427,7 +3489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -3444,7 +3506,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -3461,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -3478,7 +3540,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -3511,13 +3573,13 @@
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3551,7 +3613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -3565,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -3582,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -3599,7 +3661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -3616,7 +3678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -3633,7 +3695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -3650,7 +3712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -3667,7 +3729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3684,7 +3746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -3701,7 +3763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -3718,7 +3780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -3735,7 +3797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -3752,7 +3814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -3769,7 +3831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3786,7 +3848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -3803,7 +3865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -3820,7 +3882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3837,7 +3899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -3854,7 +3916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -3871,7 +3933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3888,7 +3950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +3967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3922,7 +3984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3939,7 +4001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3956,7 +4018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3970,7 +4032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3987,7 +4049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -4004,7 +4066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -4021,7 +4083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -4038,7 +4100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -4055,7 +4117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4072,7 +4134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -4089,7 +4151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -4103,7 +4165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -4120,7 +4182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -4137,7 +4199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -4165,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -4182,7 +4244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -4199,7 +4261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -4216,7 +4278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -4233,7 +4295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>193</v>
       </c>
@@ -4250,7 +4312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -4267,7 +4329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -4284,7 +4346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4301,7 +4363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -4315,7 +4377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -4329,7 +4391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -4346,7 +4408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -4360,7 +4422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -4374,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -4391,7 +4453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -4408,7 +4470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -4425,7 +4487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -4442,7 +4504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -4459,7 +4521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -4476,7 +4538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -4493,7 +4555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -4510,7 +4572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -4527,7 +4589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4544,7 +4606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -4561,7 +4623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4578,7 +4640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -4595,7 +4657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -4612,7 +4674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -4629,7 +4691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -4646,7 +4708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -4663,7 +4725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -4680,7 +4742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -4697,7 +4759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -4714,7 +4776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -4731,7 +4793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -4748,7 +4810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>125</v>
       </c>
@@ -4765,7 +4827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -4782,7 +4844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -4796,7 +4858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -4810,7 +4872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -4824,7 +4886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -4851,19 +4913,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A59D728-A70F-49B8-8ADF-1972683DBC15}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4880,441 +4942,612 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>221</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>223</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>222</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>224</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
       <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>88</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
         <v>230</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>94</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" t="s">
-        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>97</v>
-      </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -5326,15 +5559,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -5343,494 +5576,665 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
         <v>245</v>
       </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
         <v>246</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
         <v>247</v>
       </c>
-      <c r="C53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
         <v>248</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" t="s">
+        <v>297</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>189</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B77" t="s">
         <v>252</v>
       </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" t="s">
-        <v>253</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" t="s">
-        <v>254</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C77" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B78" t="s">
         <v>206</v>
-      </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" t="s">
-        <v>255</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" t="s">
-        <v>256</v>
-      </c>
-      <c r="C72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" t="s">
-        <v>259</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
       </c>
       <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
         <v>178</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E81" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -5842,810 +6246,1366 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>112</v>
       </c>
-      <c r="B84" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>112</v>
       </c>
-      <c r="B85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>193</v>
-      </c>
-      <c r="B86" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90" t="s">
-        <v>266</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>53</v>
-      </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>194</v>
       </c>
-      <c r="B100" t="s">
-        <v>195</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>31</v>
-      </c>
-      <c r="B103" t="s">
-        <v>272</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>40</v>
-      </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>40</v>
-      </c>
-      <c r="B116" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>40</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" t="s">
         <v>42</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C129" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>40</v>
       </c>
-      <c r="B119" t="s">
-        <v>48</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B130" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" t="s">
-        <v>216</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" t="s">
+        <v>271</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>307</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144" t="s">
+        <v>272</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" t="s">
-        <v>217</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" t="s">
-        <v>276</v>
-      </c>
-      <c r="C125" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" t="s">
-        <v>278</v>
-      </c>
-      <c r="C127" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" t="s">
-        <v>279</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>50</v>
-      </c>
-      <c r="B129" t="s">
-        <v>159</v>
-      </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" t="s">
+        <v>164</v>
+      </c>
+      <c r="C148" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131" t="s">
-        <v>280</v>
-      </c>
-      <c r="C131" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>75</v>
-      </c>
-      <c r="B133" t="s">
-        <v>281</v>
-      </c>
-      <c r="C133" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>75</v>
-      </c>
-      <c r="B134" t="s">
-        <v>78</v>
-      </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>75</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149" t="s">
         <v>282</v>
       </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>29</v>
-      </c>
-      <c r="B136" t="s">
-        <v>283</v>
-      </c>
-      <c r="C136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" t="s">
-        <v>284</v>
-      </c>
-      <c r="C137" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>29</v>
-      </c>
-      <c r="B138" t="s">
-        <v>160</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>29</v>
-      </c>
-      <c r="B139" t="s">
-        <v>285</v>
-      </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>161</v>
       </c>
-      <c r="B140" t="s">
-        <v>164</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>161</v>
-      </c>
-      <c r="B141" t="s">
-        <v>199</v>
-      </c>
-      <c r="C141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>161</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="B150" t="s">
         <v>162</v>
-      </c>
-      <c r="C142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>161</v>
-      </c>
-      <c r="B143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>161</v>
-      </c>
-      <c r="B144" t="s">
-        <v>167</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>121</v>
-      </c>
-      <c r="B145" t="s">
-        <v>170</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146" t="s">
-        <v>286</v>
-      </c>
-      <c r="C146" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>121</v>
-      </c>
-      <c r="B147" t="s">
-        <v>287</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" t="s">
-        <v>200</v>
-      </c>
-      <c r="C148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>125</v>
-      </c>
-      <c r="B149" t="s">
-        <v>126</v>
-      </c>
-      <c r="C149" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>125</v>
-      </c>
-      <c r="B150" t="s">
-        <v>127</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>121</v>
+      </c>
+      <c r="B154" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>121</v>
+      </c>
+      <c r="B155" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>121</v>
+      </c>
+      <c r="B156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>125</v>
+      </c>
+      <c r="B158" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>125</v>
+      </c>
+      <c r="B160" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>61</v>
       </c>
-      <c r="B151" t="s">
-        <v>175</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B161" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" t="s">
+        <v>82</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>61</v>
+      </c>
+      <c r="B163" t="s">
+        <v>64</v>
+      </c>
+      <c r="C163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>61</v>
       </c>
-      <c r="B152" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>61</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="B164" t="s">
         <v>65</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C164" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>201</v>
       </c>
-      <c r="B154" t="s">
-        <v>288</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B165" t="s">
+        <v>277</v>
+      </c>
+      <c r="C165" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>201</v>
       </c>
-      <c r="B155" t="s">
-        <v>289</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B166" t="s">
+        <v>278</v>
+      </c>
+      <c r="C166" t="s">
         <v>33</v>
       </c>
-    </row>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>283</v>
+      </c>
+      <c r="B167" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>283</v>
+      </c>
+      <c r="B168" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" t="s">
+        <v>282</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>283</v>
+      </c>
+      <c r="B169" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6662,9 +7622,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6694,9 +7654,9 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
